--- a/1_course_master/neural_networks/Результаты и графики.xlsx
+++ b/1_course_master/neural_networks/Результаты и графики.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20408"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptev.5306m\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFFEAED-772B-456F-946B-4CC0B4C4342E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -58,14 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,152 +94,8 @@
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,204 +104,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -785,266 +455,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,15 +504,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1109,43 +519,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1166,90 +543,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1260,7 +757,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1288,163 +785,49 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1475,12 +858,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Средние ошибки для всех параметров</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1489,6 +872,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1500,15 +903,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Обучение"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Обучение</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Обучение</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1547,6 +942,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1559,7 +955,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1603,32 +998,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.54</c:v>
+                  <c:v>22.430000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.2033333333333</c:v>
+                  <c:v>16.203333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BFC-450D-A9C4-6D95FE413531}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Тестирование"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Тестирование</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Тестирование</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1667,6 +1059,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1679,7 +1072,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1723,18 +1115,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37.4833333333333</c:v>
+                  <c:v>37.846666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.88</c:v>
+                  <c:v>37.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.0633333333333</c:v>
+                  <c:v>39.063333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BFC-450D-A9C4-6D95FE413531}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1744,7 +1141,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="555496648"/>
         <c:axId val="571989041"/>
@@ -1790,6 +1186,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="571989041"/>
@@ -1856,6 +1253,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555496648"/>
@@ -1872,7 +1270,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1898,6 +1295,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1927,6 +1325,7 @@
       <a:pPr>
         <a:defRPr lang="ru-RU"/>
       </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1938,9 +1337,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1971,12 +1370,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Средние ошибки для 1 и 5 столбцов</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1985,6 +1384,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1996,15 +1415,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Обучение"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Обучение</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Обучение</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2043,6 +1454,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2055,7 +1467,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2099,32 +1510,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.593333333333333</c:v>
+                  <c:v>1.6766666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.623333333333333</c:v>
+                  <c:v>0.62333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.653333333333333</c:v>
+                  <c:v>0.65333333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3351-4B94-B195-8087408AD5E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Тестирование"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Тестирование</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Тестирование</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2163,6 +1571,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2175,7 +1584,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2219,18 +1627,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.463333333333333</c:v>
+                  <c:v>6.9333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26666666666667</c:v>
+                  <c:v>1.2666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3351-4B94-B195-8087408AD5E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2240,7 +1653,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="182841625"/>
         <c:axId val="887832250"/>
@@ -2287,6 +1699,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887832250"/>
@@ -2351,6 +1764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="182841625"/>
@@ -2367,7 +1781,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2393,6 +1806,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2422,6 +1836,7 @@
       <a:pPr>
         <a:defRPr lang="ru-RU"/>
       </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2433,9 +1848,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2466,12 +1881,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Средние ошибки для 2 и 5 столбцов</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2480,6 +1895,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2491,15 +1926,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Обучение"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Обучение</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Обучение</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2538,6 +1965,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2550,7 +1978,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2594,32 +2021,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.84333333333333</c:v>
+                  <c:v>1.6466666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.953333333333333</c:v>
+                  <c:v>0.95333333333333325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.79</c:v>
+                  <c:v>3.7900000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDDD-4933-B8B1-51B9C19A47E2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Тестирование"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Тестирование</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Тестирование</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2658,6 +2082,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2670,7 +2095,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2714,18 +2138,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.48333333333333</c:v>
+                  <c:v>10.426666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
+                  <c:v>0.76000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.55666666666667</c:v>
+                  <c:v>3.5566666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDDD-4933-B8B1-51B9C19A47E2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2735,7 +2164,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="956383956"/>
         <c:axId val="433991974"/>
@@ -2781,6 +2209,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="433991974"/>
@@ -2846,6 +2275,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="956383956"/>
@@ -2862,7 +2292,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2888,6 +2317,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2917,6 +2347,7 @@
       <a:pPr>
         <a:defRPr lang="ru-RU"/>
       </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2928,9 +2359,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2961,12 +2392,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Средние ошибки для 3 и 5 столбцов</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2975,6 +2406,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2986,15 +2437,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Обучение"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Обучение</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Обучение</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3033,6 +2476,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3045,7 +2489,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3089,32 +2532,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.33</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.88</c:v>
+                  <c:v>1.8800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C18-46B5-AE29-C9EAD1CF74F3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Тестирование"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Тестирование</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Тестирование</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3153,6 +2593,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3165,7 +2606,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3209,10 +2649,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53</c:v>
+                  <c:v>6.6099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.396666666666667</c:v>
+                  <c:v>0.39666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.55</c:v>
@@ -3221,6 +2661,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C18-46B5-AE29-C9EAD1CF74F3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3230,7 +2675,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="526100826"/>
         <c:axId val="931266161"/>
@@ -3276,6 +2720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="931266161"/>
@@ -3341,6 +2786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="526100826"/>
@@ -3357,7 +2803,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3383,6 +2828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3412,6 +2858,7 @@
       <a:pPr>
         <a:defRPr lang="ru-RU"/>
       </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3423,9 +2870,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3456,12 +2903,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Средние ошибки для 4 и 5 столбцов</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3470,6 +2917,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3481,15 +2948,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Обучение"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Обучение</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Обучение</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3528,6 +2987,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3540,7 +3000,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3584,32 +3043,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.57</c:v>
+                  <c:v>2.1366666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.986666666666667</c:v>
+                  <c:v>0.98666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.393333333333333</c:v>
+                  <c:v>0.39333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EF6-4F14-9122-D6EEA5DFDA04}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Тестирование"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Тестирование</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Тестирование</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3648,6 +3104,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3660,7 +3117,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3704,18 +3160,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.76666666666667</c:v>
+                  <c:v>2.9533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08666666666667</c:v>
+                  <c:v>1.0866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.463333333333333</c:v>
+                  <c:v>0.46333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EF6-4F14-9122-D6EEA5DFDA04}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3725,7 +3186,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="208327528"/>
         <c:axId val="824207612"/>
@@ -3771,6 +3231,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="824207612"/>
@@ -3835,6 +3296,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208327528"/>
@@ -3851,7 +3313,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3877,6 +3338,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3906,6 +3368,7 @@
       <a:pPr>
         <a:defRPr lang="ru-RU"/>
       </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6697,7 +6160,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -6711,14 +6174,20 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5753100" y="9525"/>
-        <a:ext cx="5619750" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6741,14 +6210,20 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5743575" y="2765425"/>
-        <a:ext cx="5652135" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6771,14 +6246,20 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5743575" y="5508625"/>
-        <a:ext cx="5652135" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6801,14 +6282,20 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5746750" y="8261350"/>
-        <a:ext cx="5652135" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6831,14 +6318,20 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5740400" y="11004550"/>
-        <a:ext cx="5652135" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7103,1002 +6596,1001 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="29.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="23.2857142857143" customWidth="1"/>
-    <col min="5" max="12" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.75" spans="2:7">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="33" spans="2:7">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:7" ht="49.5">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="16.5" spans="2:7">
-      <c r="B4" s="9">
+    <row r="4" spans="2:7" ht="16.5">
+      <c r="B4" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
-        <v>23.22</v>
-      </c>
-      <c r="D4" s="11">
-        <v>35.67</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="7">
+        <v>25.89</v>
+      </c>
+      <c r="D4" s="8">
+        <v>36.76</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="2:7">
-      <c r="B5" s="9">
+    <row r="5" spans="2:7" ht="16.5">
+      <c r="B5" s="6">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>19.96</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>36.76</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="2:7">
-      <c r="B6" s="9">
+    <row r="6" spans="2:7" ht="16.5">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>21.44</v>
       </c>
-      <c r="D6" s="11">
-        <v>40.02</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="8">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="2:7">
-      <c r="B7" s="9">
+    <row r="7" spans="2:7" ht="16.5">
+      <c r="B7" s="6">
         <v>10</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>22.33</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>38.24</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="2:7">
-      <c r="B8" s="9">
+    <row r="8" spans="2:7" ht="16.5">
+      <c r="B8" s="6">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>23.42</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>37.85</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="2:7">
-      <c r="B9" s="9">
+    <row r="9" spans="2:7" ht="16.5">
+      <c r="B9" s="6">
         <v>10</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>21.15</v>
       </c>
-      <c r="D9" s="11">
-        <v>37.55</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="8">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="2:7">
-      <c r="B10" s="9">
+    <row r="10" spans="2:7" ht="16.5">
+      <c r="B10" s="6">
         <v>15</v>
       </c>
-      <c r="C10" s="10">
-        <v>16.6</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D10" s="8">
         <v>39.72</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="9">
+    <row r="11" spans="2:7" ht="16.5">
+      <c r="B11" s="6">
         <v>15</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>18.18</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>41.7</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
-    <row r="12" ht="17.25" spans="2:7">
-      <c r="B12" s="13">
+    <row r="12" spans="2:7" ht="16.5">
+      <c r="B12" s="10">
         <v>15</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>13.83</v>
       </c>
-      <c r="D12" s="15">
-        <v>35.77</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="D12" s="12">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
-    <row r="13" ht="17.25" spans="2:7">
-      <c r="B13" s="16"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+    <row r="13" spans="2:7" ht="16.5">
+      <c r="B13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
-    <row r="14" ht="17.25" spans="2:7">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="2:7" ht="16.5">
+      <c r="B14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
-    <row r="15" ht="33" spans="2:7">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="2:7" ht="49.5">
+      <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="9">
+    <row r="16" spans="2:7" ht="16.5">
+      <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
+        <v>3.65</v>
+      </c>
+      <c r="D16" s="8">
+        <v>19.71</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.5">
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.5">
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.5">
+      <c r="B19" s="6">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" ht="16.5">
+      <c r="B20" s="6">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" ht="16.5">
+      <c r="B21" s="6">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.5">
+      <c r="B22" s="6">
+        <v>15</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" ht="16.5">
+      <c r="B23" s="6">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.5">
+      <c r="B24" s="10">
+        <v>15</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="2:7" ht="16.5">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="2:7" ht="16.5">
+      <c r="B26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" ht="49.5">
+      <c r="B27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="2:7" ht="16.5">
+      <c r="B28" s="6">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>26.83</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="2:7" ht="16.5">
+      <c r="B29" s="6">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D29" s="8">
+        <v>4.45</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="2:7" ht="16.5">
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" ht="16.5">
+      <c r="B31" s="6">
+        <v>10</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="2:7" ht="16.5">
+      <c r="B32" s="6">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="2:7" ht="16.5">
+      <c r="B33" s="6">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1.88</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2.08</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="2:7" ht="16.5">
+      <c r="B34" s="6">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" ht="16.5">
+      <c r="B35" s="6">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7">
         <v>0.4</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D35" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" ht="16.5">
+      <c r="B36" s="10">
+        <v>15</v>
+      </c>
+      <c r="C36" s="11">
+        <v>10.38</v>
+      </c>
+      <c r="D36" s="12">
+        <v>10.47</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" ht="16.5">
+      <c r="B37" s="13"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="2:7" ht="16.5">
+      <c r="B38" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" ht="49.5">
+      <c r="B39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" ht="16.5">
+      <c r="B40" s="6">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2.82</v>
+      </c>
+      <c r="D40" s="8">
+        <v>18.64</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" ht="16.5">
+      <c r="B41" s="6">
+        <v>5</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" ht="16.5">
+      <c r="B42" s="6">
+        <v>5</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" ht="16.5">
+      <c r="B43" s="6">
+        <v>10</v>
+      </c>
+      <c r="C43" s="7">
         <v>0.3</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="D43" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="9">
+    <row r="44" spans="2:7" ht="16.5">
+      <c r="B44" s="6">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="2:7" ht="16.5">
+      <c r="B45" s="6">
+        <v>10</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="2:7" ht="16.5">
+      <c r="B46" s="6">
+        <v>15</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="2:7" ht="16.5">
+      <c r="B47" s="6">
+        <v>15</v>
+      </c>
+      <c r="C47" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="D47" s="8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="2:7" ht="16.5">
+      <c r="B48" s="10">
+        <v>15</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="2:12" ht="16.5">
+      <c r="B49" s="13"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.5">
+      <c r="B50" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="2:12" ht="49.5">
+      <c r="B51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="2:12" ht="16.5">
+      <c r="B52" s="6">
         <v>5</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C52" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="2:12" ht="16.5">
+      <c r="B53" s="6">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="2:12" ht="16.5">
+      <c r="B54" s="6">
+        <v>5</v>
+      </c>
+      <c r="C54" s="7">
+        <v>5.43</v>
+      </c>
+      <c r="D54" s="8">
+        <v>5.04</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="2:12" ht="16.5">
+      <c r="B55" s="6">
+        <v>10</v>
+      </c>
+      <c r="C55" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2.37</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="2:12" ht="16.5">
+      <c r="B56" s="6">
+        <v>10</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D56" s="8">
         <v>0.69</v>
       </c>
-      <c r="D17" s="11">
-        <v>1.09</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="9">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="D18" s="11">
+    <row r="57" spans="2:12" ht="16.5">
+      <c r="B57" s="6">
+        <v>10</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="2:12" ht="16.5">
+      <c r="B58" s="6">
+        <v>15</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="2:12" ht="16.5">
+      <c r="B59" s="6">
+        <v>15</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D59" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="9">
-        <v>10</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+    <row r="60" spans="2:12" ht="16.5">
+      <c r="B60" s="10">
+        <v>15</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="9">
-        <v>10</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" ht="16.5" spans="2:7">
-      <c r="B21" s="9">
-        <v>10</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="9">
-        <v>15</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.58</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1.28</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="9">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1.43</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" ht="17.25" spans="2:7">
-      <c r="B24" s="13">
-        <v>15</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.89</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1.09</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" ht="17.25" spans="2:7">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" ht="17.25" spans="2:7">
-      <c r="B26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" ht="33" spans="2:7">
-      <c r="B27" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" ht="16.5" spans="2:7">
-      <c r="B28" s="9">
-        <v>5</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" ht="16.5" spans="2:7">
-      <c r="B29" s="9">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10">
-        <v>4.35</v>
-      </c>
-      <c r="D29" s="11">
-        <v>4.45</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" ht="16.5" spans="2:7">
-      <c r="B30" s="9">
-        <v>5</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" ht="16.5" spans="2:7">
-      <c r="B31" s="9">
-        <v>10</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" ht="16.5" spans="2:7">
-      <c r="B32" s="9">
-        <v>10</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" ht="16.5" spans="2:7">
-      <c r="B33" s="9">
-        <v>10</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1.88</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2.08</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" ht="16.5" spans="2:7">
-      <c r="B34" s="9">
-        <v>15</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" ht="16.5" spans="2:7">
-      <c r="B35" s="9">
-        <v>15</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" ht="17.25" spans="2:7">
-      <c r="B36" s="13">
-        <v>15</v>
-      </c>
-      <c r="C36" s="14">
-        <v>10.38</v>
-      </c>
-      <c r="D36" s="15">
-        <v>10.47</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" ht="17.25" spans="2:7">
-      <c r="B37" s="16"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" ht="17.25" spans="2:7">
-      <c r="B38" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" ht="33" spans="2:7">
-      <c r="B39" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" ht="16.5" spans="2:7">
-      <c r="B40" s="9">
-        <v>5</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" ht="16.5" spans="2:7">
-      <c r="B41" s="9">
-        <v>5</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="D41" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" ht="16.5" spans="2:7">
-      <c r="B42" s="9">
-        <v>5</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" ht="16.5" spans="2:7">
-      <c r="B43" s="9">
-        <v>10</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D43" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" ht="16.5" spans="2:7">
-      <c r="B44" s="9">
-        <v>10</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="D44" s="11">
-        <v>0.59</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" ht="16.5" spans="2:7">
-      <c r="B45" s="9">
-        <v>10</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="D45" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" ht="16.5" spans="2:7">
-      <c r="B46" s="9">
-        <v>15</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="D46" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" ht="16.5" spans="2:7">
-      <c r="B47" s="9">
-        <v>15</v>
-      </c>
-      <c r="C47" s="10">
-        <v>4.84</v>
-      </c>
-      <c r="D47" s="11">
-        <v>4.15</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" ht="17.25" spans="2:7">
-      <c r="B48" s="13">
-        <v>15</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="D48" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" ht="17.25" spans="2:7">
-      <c r="B49" s="16"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" ht="17.25" spans="2:7">
-      <c r="B50" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" ht="33" spans="2:7">
-      <c r="B51" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" ht="16.5" spans="2:7">
-      <c r="B52" s="9">
-        <v>5</v>
-      </c>
-      <c r="C52" s="10">
-        <v>1.98</v>
-      </c>
-      <c r="D52" s="11">
-        <v>2.37</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" ht="16.5" spans="2:7">
-      <c r="B53" s="9">
-        <v>5</v>
-      </c>
-      <c r="C53" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D53" s="11">
-        <v>0.89</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" ht="16.5" spans="2:7">
-      <c r="B54" s="9">
-        <v>5</v>
-      </c>
-      <c r="C54" s="10">
-        <v>5.43</v>
-      </c>
-      <c r="D54" s="11">
-        <v>5.04</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" ht="16.5" spans="2:7">
-      <c r="B55" s="9">
-        <v>10</v>
-      </c>
-      <c r="C55" s="10">
-        <v>2.17</v>
-      </c>
-      <c r="D55" s="11">
-        <v>2.37</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" ht="16.5" spans="2:7">
-      <c r="B56" s="9">
-        <v>10</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D56" s="11">
-        <v>0.69</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" ht="16.5" spans="2:7">
-      <c r="B57" s="9">
-        <v>10</v>
-      </c>
-      <c r="C57" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="D57" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" ht="16.5" spans="2:7">
-      <c r="B58" s="9">
-        <v>15</v>
-      </c>
-      <c r="C58" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D58" s="11">
-        <v>0.99</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" ht="16.5" spans="2:7">
-      <c r="B59" s="9">
-        <v>15</v>
-      </c>
-      <c r="C59" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="D59" s="11">
-        <v>0</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" ht="17.25" spans="2:7">
-      <c r="B60" s="13">
-        <v>15</v>
-      </c>
-      <c r="C60" s="14">
-        <v>0.49</v>
-      </c>
-      <c r="D60" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" ht="16.5" spans="2:7">
-      <c r="B61" s="16"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+    <row r="61" spans="2:12" ht="16.5">
+      <c r="B61" s="13"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="36"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="39"/>
     </row>
-    <row r="64" ht="49.5" spans="2:12">
-      <c r="B64" s="30" t="s">
+    <row r="64" spans="2:12" ht="66">
+      <c r="B64" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="33" t="s">
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="37"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="43"/>
     </row>
-    <row r="65" ht="16.5" spans="2:12">
-      <c r="B65" s="9">
+    <row r="65" spans="2:12" ht="16.5">
+      <c r="B65" s="6">
         <v>5</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="21">
         <f>AVERAGE(C4:C6)</f>
-        <v>21.54</v>
-      </c>
-      <c r="D65" s="38">
+        <v>22.430000000000003</v>
+      </c>
+      <c r="D65" s="21">
         <f>AVERAGE(D4:D6)</f>
-        <v>37.4833333333333</v>
-      </c>
-      <c r="E65" s="38">
+        <v>37.846666666666664</v>
+      </c>
+      <c r="E65" s="21">
         <f>AVERAGE(C16:C18)</f>
-        <v>0.593333333333333</v>
-      </c>
-      <c r="F65" s="38">
+        <v>1.6766666666666665</v>
+      </c>
+      <c r="F65" s="21">
         <f>AVERAGE(C28:C30)</f>
-        <v>1.84333333333333</v>
-      </c>
-      <c r="G65" s="38">
+        <v>1.6466666666666665</v>
+      </c>
+      <c r="G65" s="21">
         <f>AVERAGE(C40:C42)</f>
-        <v>0.33</v>
-      </c>
-      <c r="H65" s="38">
+        <v>1.17</v>
+      </c>
+      <c r="H65" s="21">
         <f>AVERAGE(C52:C54)</f>
-        <v>2.57</v>
-      </c>
-      <c r="I65" s="40">
+        <v>2.1366666666666667</v>
+      </c>
+      <c r="I65" s="23">
         <f>AVERAGE(D16:D18)</f>
-        <v>0.463333333333333</v>
-      </c>
-      <c r="J65" s="40">
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="J65" s="23">
         <f>AVERAGE(D28:D30)</f>
-        <v>1.48333333333333</v>
-      </c>
-      <c r="K65" s="40">
+        <v>10.426666666666666</v>
+      </c>
+      <c r="K65" s="23">
         <f>AVERAGE(D40:D42)</f>
-        <v>0.53</v>
-      </c>
-      <c r="L65" s="41">
+        <v>6.6099999999999994</v>
+      </c>
+      <c r="L65" s="24">
         <f>AVERAGE(D52:D54)</f>
-        <v>2.76666666666667</v>
+        <v>2.9533333333333331</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="2:12">
-      <c r="B66" s="9">
+    <row r="66" spans="2:12" ht="16.5">
+      <c r="B66" s="6">
         <v>10</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66" s="21">
         <f>AVERAGE(C7:C9)</f>
         <v>22.3</v>
       </c>
-      <c r="D66" s="38">
+      <c r="D66" s="21">
         <f>AVERAGE(D7:D9)</f>
-        <v>37.88</v>
-      </c>
-      <c r="E66" s="38">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="E66" s="21">
         <f>AVERAGE(C19:C21)</f>
-        <v>0.623333333333333</v>
-      </c>
-      <c r="F66" s="38">
+        <v>0.62333333333333329</v>
+      </c>
+      <c r="F66" s="21">
         <f>AVERAGE(C31:C33)</f>
-        <v>0.953333333333333</v>
-      </c>
-      <c r="G66" s="38">
+        <v>0.95333333333333325</v>
+      </c>
+      <c r="G66" s="21">
         <f>AVERAGE(C43:C45)</f>
-        <v>0.366666666666667</v>
-      </c>
-      <c r="H66" s="38">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="H66" s="21">
         <f>AVERAGE(C55:C57)</f>
-        <v>0.986666666666667</v>
-      </c>
-      <c r="I66" s="40">
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="I66" s="23">
         <f>AVERAGE(D19:D21)</f>
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="J66" s="40">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J66" s="23">
         <f>AVERAGE(D31:D33)</f>
-        <v>0.76</v>
-      </c>
-      <c r="K66" s="40">
+        <v>0.76000000000000012</v>
+      </c>
+      <c r="K66" s="23">
         <f>AVERAGE(D43:D45)</f>
-        <v>0.396666666666667</v>
-      </c>
-      <c r="L66" s="41">
+        <v>0.39666666666666667</v>
+      </c>
+      <c r="L66" s="24">
         <f>AVERAGE(D55:D57)</f>
-        <v>1.08666666666667</v>
+        <v>1.0866666666666667</v>
       </c>
     </row>
-    <row r="67" ht="17.25" spans="2:12">
-      <c r="B67" s="13">
+    <row r="67" spans="2:12" ht="16.5">
+      <c r="B67" s="10">
         <v>15</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="22">
         <f>AVERAGE(C10:C12)</f>
-        <v>16.2033333333333</v>
-      </c>
-      <c r="D67" s="39">
+        <v>16.203333333333333</v>
+      </c>
+      <c r="D67" s="22">
         <f>AVERAGE(D10:D12)</f>
-        <v>39.0633333333333</v>
-      </c>
-      <c r="E67" s="39">
+        <v>39.063333333333333</v>
+      </c>
+      <c r="E67" s="22">
         <f>AVERAGE(C22:C24)</f>
-        <v>0.653333333333333</v>
-      </c>
-      <c r="F67" s="39">
+        <v>0.65333333333333332</v>
+      </c>
+      <c r="F67" s="22">
         <f>AVERAGE(C34:C36)</f>
-        <v>3.79</v>
-      </c>
-      <c r="G67" s="39">
+        <v>3.7900000000000005</v>
+      </c>
+      <c r="G67" s="22">
         <f>AVERAGE(C46:C48)</f>
-        <v>1.88</v>
-      </c>
-      <c r="H67" s="39">
+        <v>1.8800000000000001</v>
+      </c>
+      <c r="H67" s="22">
         <f>AVERAGE(C58:C60)</f>
-        <v>0.393333333333333</v>
-      </c>
-      <c r="I67" s="42">
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="I67" s="25">
         <f>AVERAGE(D22:D24)</f>
-        <v>1.26666666666667</v>
-      </c>
-      <c r="J67" s="42">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="J67" s="25">
         <f>AVERAGE(D34:D36)</f>
-        <v>3.55666666666667</v>
-      </c>
-      <c r="K67" s="42">
+        <v>3.5566666666666666</v>
+      </c>
+      <c r="K67" s="25">
         <f>AVERAGE(D46:D48)</f>
         <v>1.55</v>
       </c>
-      <c r="L67" s="43">
+      <c r="L67" s="26">
         <f>AVERAGE(D58:D60)</f>
-        <v>0.463333333333333</v>
+        <v>0.46333333333333337</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:L64"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:L64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/1_course_master/neural_networks/Результаты и графики.xlsx
+++ b/1_course_master/neural_networks/Результаты и графики.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptev.5306m\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFFEAED-772B-456F-946B-4CC0B4C4342E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5D3AC5-B9F4-4642-97F2-ACD31B37BA12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,6 +543,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,30 +592,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,13 +998,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22.430000000000003</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.3</c:v>
+                  <c:v>20.683333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.203333333333333</c:v>
+                  <c:v>15.613333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,13 +1115,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37.846666666666664</c:v>
+                  <c:v>36.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.880000000000003</c:v>
+                  <c:v>38.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.063333333333333</c:v>
+                  <c:v>41.573333333333338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,7 +1200,7 @@
         <c:axId val="571989041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="45"/>
           <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1510,13 +1510,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.6766666666666665</c:v>
+                  <c:v>3.0033333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62333333333333329</c:v>
+                  <c:v>1.2166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65333333333333332</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,13 +1627,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.9333333333333336</c:v>
+                  <c:v>19.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>18.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2666666666666666</c:v>
+                  <c:v>18.330000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,6 +1713,7 @@
         <c:axId val="887832250"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2021,13 +2022,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.6466666666666665</c:v>
+                  <c:v>0.40666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95333333333333325</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7900000000000005</c:v>
+                  <c:v>0.40666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,13 +2139,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.426666666666666</c:v>
+                  <c:v>26.423333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76000000000000012</c:v>
+                  <c:v>23.136666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5566666666666666</c:v>
+                  <c:v>23.983333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,7 +2224,7 @@
         <c:axId val="433991974"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6604,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6617,11 +6618,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -6673,10 +6674,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="7">
-        <v>21.44</v>
+        <v>25.4</v>
       </c>
       <c r="D6" s="8">
-        <v>40.020000000000003</v>
+        <v>36.46</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -6687,10 +6688,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22.33</v>
+        <v>21.54</v>
       </c>
       <c r="D7" s="8">
-        <v>38.24</v>
+        <v>37.35</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -6701,10 +6702,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>23.42</v>
+        <v>19.86</v>
       </c>
       <c r="D8" s="8">
-        <v>37.85</v>
+        <v>37.35</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -6715,10 +6716,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>21.15</v>
+        <v>20.65</v>
       </c>
       <c r="D9" s="8">
-        <v>37.549999999999997</v>
+        <v>39.33</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -6729,10 +6730,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="7">
-        <v>16.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8">
-        <v>39.72</v>
+        <v>48.34</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -6743,10 +6744,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>18.18</v>
+        <v>14.72</v>
       </c>
       <c r="D11" s="8">
-        <v>41.7</v>
+        <v>38.93</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -6757,10 +6758,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="11">
-        <v>13.83</v>
+        <v>15.12</v>
       </c>
       <c r="D12" s="12">
-        <v>35.770000000000003</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -6775,11 +6776,11 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" ht="16.5">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6817,10 +6818,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="7">
-        <v>0.69</v>
+        <v>1.95</v>
       </c>
       <c r="D17" s="8">
-        <v>1.0900000000000001</v>
+        <v>19.95</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -6831,10 +6832,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="7">
-        <v>0.69</v>
+        <v>3.41</v>
       </c>
       <c r="D18" s="8">
-        <v>0</v>
+        <v>19.95</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -6845,10 +6846,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0.69</v>
+        <v>1.46</v>
       </c>
       <c r="D19" s="8">
-        <v>0</v>
+        <v>16.55</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -6859,10 +6860,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0.49</v>
+        <v>0.97</v>
       </c>
       <c r="D20" s="8">
-        <v>0.2</v>
+        <v>18.73</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -6873,10 +6874,10 @@
         <v>10</v>
       </c>
       <c r="C21" s="7">
-        <v>0.69</v>
+        <v>1.22</v>
       </c>
       <c r="D21" s="8">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -6887,10 +6888,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.97</v>
       </c>
       <c r="D22" s="8">
-        <v>1.28</v>
+        <v>17.03</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -6901,10 +6902,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>0.49</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D23" s="8">
-        <v>1.43</v>
+        <v>16.79</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -6915,10 +6916,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="11">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="D24" s="12">
-        <v>1.0900000000000001</v>
+        <v>21.17</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -6933,11 +6934,11 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7" ht="16.5">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6975,10 +6976,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="7">
-        <v>4.3499999999999996</v>
+        <v>0</v>
       </c>
       <c r="D29" s="8">
-        <v>4.45</v>
+        <v>18.29</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -6989,10 +6990,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="7">
-        <v>0.59</v>
+        <v>1.22</v>
       </c>
       <c r="D30" s="8">
-        <v>0</v>
+        <v>34.15</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -7003,10 +7004,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="7">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D31" s="8">
-        <v>0.1</v>
+        <v>26.83</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -7017,10 +7018,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D32" s="8">
-        <v>0.1</v>
+        <v>20.63</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -7031,10 +7032,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="7">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="D33" s="8">
-        <v>2.08</v>
+        <v>21.95</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -7045,10 +7046,10 @@
         <v>15</v>
       </c>
       <c r="C34" s="7">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="D34" s="8">
-        <v>0</v>
+        <v>28.05</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -7059,10 +7060,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D35" s="8">
-        <v>0.2</v>
+        <v>24.39</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -7073,10 +7074,10 @@
         <v>15</v>
       </c>
       <c r="C36" s="11">
-        <v>10.38</v>
+        <v>1.22</v>
       </c>
       <c r="D36" s="12">
-        <v>10.47</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -7091,11 +7092,11 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="2:7" ht="16.5">
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -7249,11 +7250,11 @@
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:12" ht="16.5">
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -7407,19 +7408,19 @@
       <c r="G61" s="9"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="39"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
     </row>
     <row r="64" spans="2:12" ht="66">
       <c r="B64" s="19" t="s">
@@ -7431,18 +7432,18 @@
       <c r="D64" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E64" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="41" t="s">
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="43"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="34"/>
     </row>
     <row r="65" spans="2:12" ht="16.5">
       <c r="B65" s="6">
@@ -7450,19 +7451,19 @@
       </c>
       <c r="C65" s="21">
         <f>AVERAGE(C4:C6)</f>
-        <v>22.430000000000003</v>
+        <v>23.75</v>
       </c>
       <c r="D65" s="21">
         <f>AVERAGE(D4:D6)</f>
-        <v>37.846666666666664</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="E65" s="21">
         <f>AVERAGE(C16:C18)</f>
-        <v>1.6766666666666665</v>
+        <v>3.0033333333333334</v>
       </c>
       <c r="F65" s="21">
         <f>AVERAGE(C28:C30)</f>
-        <v>1.6466666666666665</v>
+        <v>0.40666666666666668</v>
       </c>
       <c r="G65" s="21">
         <f>AVERAGE(C40:C42)</f>
@@ -7474,11 +7475,11 @@
       </c>
       <c r="I65" s="23">
         <f>AVERAGE(D16:D18)</f>
-        <v>6.9333333333333336</v>
+        <v>19.87</v>
       </c>
       <c r="J65" s="23">
         <f>AVERAGE(D28:D30)</f>
-        <v>10.426666666666666</v>
+        <v>26.423333333333332</v>
       </c>
       <c r="K65" s="23">
         <f>AVERAGE(D40:D42)</f>
@@ -7495,19 +7496,19 @@
       </c>
       <c r="C66" s="21">
         <f>AVERAGE(C7:C9)</f>
-        <v>22.3</v>
+        <v>20.683333333333334</v>
       </c>
       <c r="D66" s="21">
         <f>AVERAGE(D7:D9)</f>
-        <v>37.880000000000003</v>
+        <v>38.01</v>
       </c>
       <c r="E66" s="21">
         <f>AVERAGE(C19:C21)</f>
-        <v>0.62333333333333329</v>
+        <v>1.2166666666666666</v>
       </c>
       <c r="F66" s="21">
         <f>AVERAGE(C31:C33)</f>
-        <v>0.95333333333333325</v>
+        <v>0</v>
       </c>
       <c r="G66" s="21">
         <f>AVERAGE(C43:C45)</f>
@@ -7519,11 +7520,11 @@
       </c>
       <c r="I66" s="23">
         <f>AVERAGE(D19:D21)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>18.166666666666668</v>
       </c>
       <c r="J66" s="23">
         <f>AVERAGE(D31:D33)</f>
-        <v>0.76000000000000012</v>
+        <v>23.136666666666667</v>
       </c>
       <c r="K66" s="23">
         <f>AVERAGE(D43:D45)</f>
@@ -7540,19 +7541,19 @@
       </c>
       <c r="C67" s="22">
         <f>AVERAGE(C10:C12)</f>
-        <v>16.203333333333333</v>
+        <v>15.613333333333332</v>
       </c>
       <c r="D67" s="22">
         <f>AVERAGE(D10:D12)</f>
-        <v>39.063333333333333</v>
+        <v>41.573333333333338</v>
       </c>
       <c r="E67" s="22">
         <f>AVERAGE(C22:C24)</f>
-        <v>0.65333333333333332</v>
+        <v>1.54</v>
       </c>
       <c r="F67" s="22">
         <f>AVERAGE(C34:C36)</f>
-        <v>3.7900000000000005</v>
+        <v>0.40666666666666668</v>
       </c>
       <c r="G67" s="22">
         <f>AVERAGE(C46:C48)</f>
@@ -7564,11 +7565,11 @@
       </c>
       <c r="I67" s="25">
         <f>AVERAGE(D22:D24)</f>
-        <v>1.2666666666666666</v>
+        <v>18.330000000000002</v>
       </c>
       <c r="J67" s="25">
         <f>AVERAGE(D34:D36)</f>
-        <v>3.5566666666666666</v>
+        <v>23.983333333333334</v>
       </c>
       <c r="K67" s="25">
         <f>AVERAGE(D46:D48)</f>

--- a/1_course_master/neural_networks/Результаты и графики.xlsx
+++ b/1_course_master/neural_networks/Результаты и графики.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptev.5306m\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5D3AC5-B9F4-4642-97F2-ACD31B37BA12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF59685E-F058-4E4C-9E6C-761EEACAB114}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2533,13 +2533,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.17</c:v>
+                  <c:v>1.7866666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3666666666666667</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8800000000000001</c:v>
+                  <c:v>0.7533333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2650,13 +2650,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.6099999999999994</c:v>
+                  <c:v>19.680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39666666666666667</c:v>
+                  <c:v>18.833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.55</c:v>
+                  <c:v>17.703333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,13 +3044,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.1366666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98666666666666669</c:v>
+                  <c:v>0.22666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39333333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3161,13 +3161,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.9533333333333331</c:v>
+                  <c:v>13.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0866666666666667</c:v>
+                  <c:v>13.153333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46333333333333337</c:v>
+                  <c:v>12.016666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6605,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7134,10 +7134,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="7">
-        <v>0.49</v>
+        <v>1.41</v>
       </c>
       <c r="D41" s="8">
-        <v>0.4</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -7148,10 +7148,10 @@
         <v>5</v>
       </c>
       <c r="C42" s="7">
-        <v>0.2</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D42" s="8">
-        <v>0.79</v>
+        <v>20.34</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -7162,10 +7162,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="7">
-        <v>0.3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D43" s="8">
-        <v>0.4</v>
+        <v>18.93</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -7176,10 +7176,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="7">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D44" s="8">
-        <v>0.59</v>
+        <v>18.93</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -7190,10 +7190,10 @@
         <v>10</v>
       </c>
       <c r="C45" s="7">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D45" s="8">
-        <v>0.2</v>
+        <v>18.64</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -7204,10 +7204,10 @@
         <v>15</v>
       </c>
       <c r="C46" s="7">
-        <v>0.4</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D46" s="8">
-        <v>0.3</v>
+        <v>16.95</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -7218,10 +7218,10 @@
         <v>15</v>
       </c>
       <c r="C47" s="7">
-        <v>4.84</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D47" s="8">
-        <v>4.1500000000000004</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -7232,10 +7232,10 @@
         <v>15</v>
       </c>
       <c r="C48" s="11">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
       <c r="D48" s="12">
-        <v>0.2</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -7278,10 +7278,10 @@
         <v>5</v>
       </c>
       <c r="C52" s="7">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="D52" s="8">
-        <v>2.93</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -7292,10 +7292,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D53" s="8">
-        <v>0.89</v>
+        <v>10.88</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -7306,10 +7306,10 @@
         <v>5</v>
       </c>
       <c r="C54" s="7">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="D54" s="8">
-        <v>5.04</v>
+        <v>14.29</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -7320,10 +7320,10 @@
         <v>10</v>
       </c>
       <c r="C55" s="7">
-        <v>2.17</v>
+        <v>0.68</v>
       </c>
       <c r="D55" s="8">
-        <v>2.37</v>
+        <v>14.29</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -7334,10 +7334,10 @@
         <v>10</v>
       </c>
       <c r="C56" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D56" s="8">
-        <v>0.69</v>
+        <v>11.56</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -7348,10 +7348,10 @@
         <v>10</v>
       </c>
       <c r="C57" s="7">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D57" s="8">
-        <v>0.2</v>
+        <v>13.61</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -7362,10 +7362,10 @@
         <v>15</v>
       </c>
       <c r="C58" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="8">
-        <v>0.99</v>
+        <v>14.97</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -7376,10 +7376,10 @@
         <v>15</v>
       </c>
       <c r="C59" s="7">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D59" s="8">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -7390,10 +7390,10 @@
         <v>15</v>
       </c>
       <c r="C60" s="11">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D60" s="12">
-        <v>0.4</v>
+        <v>9.52</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -7467,11 +7467,11 @@
       </c>
       <c r="G65" s="21">
         <f>AVERAGE(C40:C42)</f>
-        <v>1.17</v>
+        <v>1.7866666666666664</v>
       </c>
       <c r="H65" s="21">
         <f>AVERAGE(C52:C54)</f>
-        <v>2.1366666666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" s="23">
         <f>AVERAGE(D16:D18)</f>
@@ -7483,11 +7483,11 @@
       </c>
       <c r="K65" s="23">
         <f>AVERAGE(D40:D42)</f>
-        <v>6.6099999999999994</v>
+        <v>19.680000000000003</v>
       </c>
       <c r="L65" s="24">
         <f>AVERAGE(D52:D54)</f>
-        <v>2.9533333333333331</v>
+        <v>13.833333333333334</v>
       </c>
     </row>
     <row r="66" spans="2:12" ht="16.5">
@@ -7512,11 +7512,11 @@
       </c>
       <c r="G66" s="21">
         <f>AVERAGE(C43:C45)</f>
-        <v>0.3666666666666667</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H66" s="21">
         <f>AVERAGE(C55:C57)</f>
-        <v>0.98666666666666669</v>
+        <v>0.22666666666666668</v>
       </c>
       <c r="I66" s="23">
         <f>AVERAGE(D19:D21)</f>
@@ -7528,11 +7528,11 @@
       </c>
       <c r="K66" s="23">
         <f>AVERAGE(D43:D45)</f>
-        <v>0.39666666666666667</v>
+        <v>18.833333333333332</v>
       </c>
       <c r="L66" s="24">
         <f>AVERAGE(D55:D57)</f>
-        <v>1.0866666666666667</v>
+        <v>13.153333333333334</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="16.5">
@@ -7557,11 +7557,11 @@
       </c>
       <c r="G67" s="22">
         <f>AVERAGE(C46:C48)</f>
-        <v>1.8800000000000001</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="H67" s="22">
         <f>AVERAGE(C58:C60)</f>
-        <v>0.39333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I67" s="25">
         <f>AVERAGE(D22:D24)</f>
@@ -7573,11 +7573,11 @@
       </c>
       <c r="K67" s="25">
         <f>AVERAGE(D46:D48)</f>
-        <v>1.55</v>
+        <v>17.703333333333333</v>
       </c>
       <c r="L67" s="26">
         <f>AVERAGE(D58:D60)</f>
-        <v>0.46333333333333337</v>
+        <v>12.016666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -7592,6 +7592,7 @@
     <mergeCell ref="B50:D50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>